--- a/public/TransactionImportSample.xlsx
+++ b/public/TransactionImportSample.xlsx
@@ -21,31 +21,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>units_purchased</t>
-  </si>
-  <si>
-    <t>purchase_price_per_unit</t>
-  </si>
-  <si>
-    <t>investment_type</t>
-  </si>
-  <si>
-    <t>coin name</t>
-  </si>
-  <si>
-    <t>coin symbol</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
   </si>
   <si>
     <t>bitcoin</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>purchase_date(mm/dd/yyyy)</t>
+    <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Price per unit</t>
+  </si>
+  <si>
+    <t>Purchase Date</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>Coin Name</t>
+  </si>
+  <si>
+    <t>Symbol</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,33 +386,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -431,6 +431,11 @@
       <c r="F4" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"buy,sell"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
